--- a/2 - Flow output Excel files - working drafts/Data Output 06_30_2019/Offsets and Clip times 06_30_2019_AM.xlsx
+++ b/2 - Flow output Excel files - working drafts/Data Output 06_30_2019/Offsets and Clip times 06_30_2019_AM.xlsx
@@ -18636,7 +18636,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
